--- a/biology/Botanique/Tephroseris/Tephroseris.xlsx
+++ b/biology/Botanique/Tephroseris/Tephroseris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tephroseris est un genre de plantes à fleurs de la tribu des Senecioneae (les séneçons) et de la famille des Asteraceae (les marguerites) d'origine eurasiennes et nord-américaines[1],[2],[3],[4],[5]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tephroseris est un genre de plantes à fleurs de la tribu des Senecioneae (les séneçons) et de la famille des Asteraceae (les marguerites) d'origine eurasiennes et nord-américaines. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant list[6] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant list :
 Tephroseris adenolepis C.Jeffrey &amp; Y.L.Chen
 Tephroseris balbisiana (DC.) Holub
 Tephroseris besseriana (Minderova) Czerep.
@@ -584,9 +598,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Tephroseris (Rchb.) Rchb., 1842[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Tephroseris (Rchb.) Rchb., 1842.
 </t>
         </is>
       </c>
